--- a/holy.xlsx
+++ b/holy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="133">
   <si>
     <t>Class</t>
   </si>
@@ -40,6 +40,9 @@
     <t>cairis</t>
   </si>
   <si>
+    <t>Netninja543</t>
+  </si>
+  <si>
     <t>acidfs</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>guergs</t>
   </si>
   <si>
-    <t>Netninja543</t>
-  </si>
-  <si>
     <t>Vasi</t>
   </si>
   <si>
@@ -133,9 +133,6 @@
     <t>marwolaeth66</t>
   </si>
   <si>
-    <t>partykat</t>
-  </si>
-  <si>
     <t>banes</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>BreninFae</t>
   </si>
   <si>
-    <t>PartyKat</t>
-  </si>
-  <si>
     <t>banesy</t>
   </si>
   <si>
@@ -343,6 +337,9 @@
     <t>Offense, Defense, Flex, Cannoneer, Scout</t>
   </si>
   <si>
+    <t>Offense, Defense, Flex, Scout, Shotcaller</t>
+  </si>
+  <si>
     <t>Offense, Flex, Cannoneer</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
   </si>
   <si>
     <t>Offense, Shotcaller</t>
-  </si>
-  <si>
-    <t>Defense, Flex, Cannoneer, Scout, Shotcaller</t>
   </si>
   <si>
     <t>Defense, Flex, Cannoneer, Scout</t>
@@ -780,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -838,10 +832,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>336</v>
@@ -853,16 +847,16 @@
         <v>411</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L2">
         <v>749</v>
@@ -876,10 +870,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>279</v>
@@ -891,22 +885,22 @@
         <v>360</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L3">
         <v>651</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -923,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>358</v>
@@ -935,22 +929,22 @@
         <v>428</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L4">
         <v>786</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -964,10 +958,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>374</v>
@@ -979,22 +973,22 @@
         <v>447</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L5">
         <v>821</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1011,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>332</v>
@@ -1023,22 +1017,22 @@
         <v>427</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L6">
         <v>761</v>
       </c>
       <c r="M6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1052,10 +1046,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>372</v>
@@ -1067,66 +1061,66 @@
         <v>442</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L7">
         <v>814</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>46023.50903935185</v>
+        <v>46029.93693287037</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="F8">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="G8">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L8">
-        <v>847</v>
+        <v>804</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1134,43 +1128,43 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>46025.41762731481</v>
+        <v>46029.72747685185</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E9">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="F9">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="G9">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L9">
-        <v>815</v>
+        <v>849</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1178,87 +1172,87 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>46023.67623842593</v>
+        <v>46025.41762731481</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10">
+        <v>370</v>
+      </c>
+      <c r="F10">
+        <v>378</v>
+      </c>
+      <c r="G10">
+        <v>437</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10">
+        <v>815</v>
+      </c>
+      <c r="M10" t="s">
         <v>85</v>
       </c>
-      <c r="E10">
-        <v>332</v>
-      </c>
-      <c r="F10">
-        <v>316</v>
-      </c>
-      <c r="G10">
-        <v>427</v>
-      </c>
-      <c r="H10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K10" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10">
-        <v>759</v>
-      </c>
-      <c r="M10" t="s">
-        <v>87</v>
-      </c>
       <c r="N10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>46025.71400462963</v>
+        <v>46023.67623842593</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11">
+        <v>332</v>
+      </c>
+      <c r="F11">
+        <v>316</v>
+      </c>
+      <c r="G11">
+        <v>427</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11">
+        <v>759</v>
+      </c>
+      <c r="M11" t="s">
         <v>86</v>
-      </c>
-      <c r="E11">
-        <v>381</v>
-      </c>
-      <c r="F11">
-        <v>385</v>
-      </c>
-      <c r="G11">
-        <v>453</v>
-      </c>
-      <c r="H11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11">
-        <v>838</v>
-      </c>
-      <c r="M11" t="s">
-        <v>88</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1266,43 +1260,43 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>46028.69334490741</v>
+        <v>46025.71400462963</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12">
+        <v>381</v>
+      </c>
+      <c r="F12">
+        <v>385</v>
+      </c>
+      <c r="G12">
+        <v>453</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12">
+        <v>838</v>
+      </c>
+      <c r="M12" t="s">
         <v>87</v>
-      </c>
-      <c r="E12">
-        <v>389</v>
-      </c>
-      <c r="F12">
-        <v>393</v>
-      </c>
-      <c r="G12">
-        <v>459</v>
-      </c>
-      <c r="H12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12">
-        <v>852</v>
-      </c>
-      <c r="M12" t="s">
-        <v>89</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1310,43 +1304,43 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>46023.63821759259</v>
+        <v>46028.69334490741</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="F13">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G13">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L13">
-        <v>797</v>
+        <v>852</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1360,10 +1354,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14">
         <v>305</v>
@@ -1375,22 +1369,22 @@
         <v>375</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L14">
         <v>682</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1404,10 +1398,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15">
         <v>381</v>
@@ -1419,22 +1413,22 @@
         <v>451</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L15">
         <v>840</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1451,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16">
         <v>389</v>
@@ -1463,22 +1457,22 @@
         <v>460</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L16">
         <v>849</v>
       </c>
       <c r="M16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1492,10 +1486,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17">
         <v>365</v>
@@ -1507,22 +1501,22 @@
         <v>413</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L17">
         <v>778</v>
       </c>
       <c r="M17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1536,10 +1530,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18">
         <v>358</v>
@@ -1551,22 +1545,22 @@
         <v>434</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18">
         <v>792</v>
       </c>
       <c r="M18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1580,10 +1574,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E19">
         <v>342</v>
@@ -1595,22 +1589,22 @@
         <v>416</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L19">
         <v>758</v>
       </c>
       <c r="M19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1624,10 +1618,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20">
         <v>393</v>
@@ -1639,22 +1633,22 @@
         <v>463</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L20">
         <v>858</v>
       </c>
       <c r="M20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1671,7 +1665,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21">
         <v>379</v>
@@ -1683,22 +1677,22 @@
         <v>440</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L21">
         <v>819</v>
       </c>
       <c r="M21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1712,10 +1706,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22">
         <v>369</v>
@@ -1727,22 +1721,22 @@
         <v>446</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L22">
         <v>821</v>
       </c>
       <c r="M22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N22">
         <v>3</v>
@@ -1759,7 +1753,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23">
         <v>365</v>
@@ -1771,22 +1765,22 @@
         <v>432</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L23">
         <v>803</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1800,10 +1794,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <v>347</v>
@@ -1815,25 +1809,25 @@
         <v>435</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L24">
         <v>798</v>
       </c>
       <c r="M24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1844,10 +1838,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>282</v>
@@ -1859,22 +1853,22 @@
         <v>369</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L25">
         <v>651</v>
       </c>
       <c r="M25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1888,10 +1882,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E26">
         <v>373</v>
@@ -1903,22 +1897,22 @@
         <v>451</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L26">
         <v>826</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N26">
         <v>4</v>
@@ -1932,10 +1926,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27">
         <v>381</v>
@@ -1947,22 +1941,22 @@
         <v>454</v>
       </c>
       <c r="H27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L27">
         <v>841</v>
       </c>
       <c r="M27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1979,7 +1973,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E28">
         <v>374</v>
@@ -1991,16 +1985,16 @@
         <v>443</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L28">
         <v>817</v>
@@ -2014,10 +2008,10 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29">
         <v>369</v>
@@ -2029,16 +2023,16 @@
         <v>450</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L29">
         <v>823</v>
@@ -2055,7 +2049,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E30">
         <v>355</v>
@@ -2067,16 +2061,16 @@
         <v>416</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L30">
         <v>771</v>
@@ -2090,10 +2084,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E31">
         <v>386</v>
@@ -2105,16 +2099,16 @@
         <v>462</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L31">
         <v>856</v>
@@ -2131,7 +2125,7 @@
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E32">
         <v>347</v>
@@ -2143,16 +2137,16 @@
         <v>426</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L32">
         <v>773</v>
@@ -2169,7 +2163,7 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E33">
         <v>374</v>
@@ -2181,16 +2175,16 @@
         <v>443</v>
       </c>
       <c r="H33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L33">
         <v>823</v>
@@ -2204,10 +2198,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E34">
         <v>367</v>
@@ -2219,16 +2213,16 @@
         <v>437</v>
       </c>
       <c r="H34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L34">
         <v>804</v>
@@ -2245,7 +2239,7 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E35">
         <v>285</v>
@@ -2257,16 +2251,16 @@
         <v>379</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L35">
         <v>666</v>
@@ -2283,7 +2277,7 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36">
         <v>364</v>
@@ -2295,16 +2289,16 @@
         <v>434</v>
       </c>
       <c r="H36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L36">
         <v>798</v>
@@ -2318,10 +2312,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E37">
         <v>358</v>
@@ -2333,16 +2327,16 @@
         <v>428</v>
       </c>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L37">
         <v>794</v>
@@ -2356,10 +2350,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E38">
         <v>355</v>
@@ -2371,16 +2365,16 @@
         <v>425</v>
       </c>
       <c r="H38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L38">
         <v>780</v>
@@ -2388,381 +2382,343 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2">
-        <v>46025.61513888889</v>
+        <v>46023.7227662037</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F39">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G39">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="I39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L39">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2">
-        <v>46023.7227662037</v>
+        <v>46025.63458333333</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="F40">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="G40">
-        <v>427</v>
+        <v>317</v>
       </c>
       <c r="H40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L40">
-        <v>780</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2">
-        <v>46025.63458333333</v>
+        <v>46023.44038194444</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E41">
-        <v>256</v>
+        <v>390</v>
       </c>
       <c r="F41">
-        <v>266</v>
+        <v>390</v>
       </c>
       <c r="G41">
-        <v>317</v>
+        <v>460</v>
       </c>
       <c r="H41" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L41">
-        <v>583</v>
+        <v>850</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2">
-        <v>46023.44038194444</v>
+        <v>46029.09168981481</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F42">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G42">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L42">
-        <v>850</v>
+        <v>818</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2">
-        <v>46029.09168981481</v>
+        <v>46025.72540509259</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E43">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F43">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G43">
         <v>438</v>
       </c>
       <c r="H43" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L43">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2">
-        <v>46025.72540509259</v>
+        <v>46023.41387731482</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E44">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="F44">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="G44">
-        <v>438</v>
+        <v>314</v>
       </c>
       <c r="H44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L44">
-        <v>809</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2">
-        <v>46023.41387731482</v>
+        <v>46016.11488425926</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E45">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F45">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G45">
-        <v>314</v>
+        <v>424</v>
       </c>
       <c r="H45" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L45">
-        <v>636</v>
+        <v>751</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2">
-        <v>46016.11488425926</v>
+        <v>46025.92335648148</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="F46">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G46">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H46" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L46">
-        <v>751</v>
+        <v>781</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2">
-        <v>46025.92335648148</v>
+        <v>46025.7187037037</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E47">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="F47">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="G47">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L47">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="2">
-        <v>46025.7187037037</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48">
-        <v>390</v>
-      </c>
-      <c r="F48">
-        <v>382</v>
-      </c>
-      <c r="G48">
-        <v>459</v>
-      </c>
-      <c r="H48" t="s">
-        <v>131</v>
-      </c>
-      <c r="I48" t="s">
-        <v>133</v>
-      </c>
-      <c r="J48" t="s">
-        <v>132</v>
-      </c>
-      <c r="K48" t="s">
-        <v>133</v>
-      </c>
-      <c r="L48">
         <v>849</v>
       </c>
     </row>

--- a/holy.xlsx
+++ b/holy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="160">
   <si>
     <t>Class</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Zednel</t>
   </si>
   <si>
-    <t>plvgrizzly</t>
+    <t>limis2041</t>
   </si>
   <si>
     <t>TheZeroMark</t>
@@ -34,76 +34,118 @@
     <t>lazyhuy</t>
   </si>
   <si>
-    <t xml:space="preserve">Criptyk </t>
-  </si>
-  <si>
-    <t>cairis</t>
+    <t>Cairis</t>
+  </si>
+  <si>
+    <t>Criptyk</t>
   </si>
   <si>
     <t>Netninja543</t>
   </si>
   <si>
+    <t>theethirdman</t>
+  </si>
+  <si>
+    <t>sodandy</t>
+  </si>
+  <si>
+    <t>Naut</t>
+  </si>
+  <si>
+    <t>Ryziz45</t>
+  </si>
+  <si>
+    <t>__int3</t>
+  </si>
+  <si>
+    <t>fangednoumenon</t>
+  </si>
+  <si>
+    <t>Ryuden</t>
+  </si>
+  <si>
+    <t>mikegangel</t>
+  </si>
+  <si>
+    <t>guergs</t>
+  </si>
+  <si>
+    <t>JustSwift</t>
+  </si>
+  <si>
+    <t>Vasi</t>
+  </si>
+  <si>
+    <t>Exposed</t>
+  </si>
+  <si>
+    <t>WickedKiss</t>
+  </si>
+  <si>
+    <t>zozrog</t>
+  </si>
+  <si>
+    <t>Misha</t>
+  </si>
+  <si>
+    <t>Yamul</t>
+  </si>
+  <si>
+    <t>shana</t>
+  </si>
+  <si>
+    <t>SwagPlay</t>
+  </si>
+  <si>
+    <t>Munchy</t>
+  </si>
+  <si>
+    <t>lordgeminie</t>
+  </si>
+  <si>
+    <t>billberry</t>
+  </si>
+  <si>
+    <t>Ruekure</t>
+  </si>
+  <si>
+    <t>Segwarides(Gang)</t>
+  </si>
+  <si>
+    <t>diegoz366</t>
+  </si>
+  <si>
+    <t>wonderdogman</t>
+  </si>
+  <si>
+    <t>dennymane</t>
+  </si>
+  <si>
+    <t>Mrclutchcakes</t>
+  </si>
+  <si>
+    <t>Born8</t>
+  </si>
+  <si>
+    <t>Maalinko174</t>
+  </si>
+  <si>
+    <t>Viellideau</t>
+  </si>
+  <si>
+    <t>kohnja</t>
+  </si>
+  <si>
+    <t>dudeshutup</t>
+  </si>
+  <si>
+    <t>Emperor</t>
+  </si>
+  <si>
     <t>acidfs</t>
   </si>
   <si>
-    <t>Ryziz45</t>
-  </si>
-  <si>
-    <t>__int3</t>
-  </si>
-  <si>
-    <t>Ryuden</t>
-  </si>
-  <si>
-    <t>guergs</t>
-  </si>
-  <si>
-    <t>Vasi</t>
-  </si>
-  <si>
-    <t>JustSwift</t>
-  </si>
-  <si>
-    <t>Exposed</t>
-  </si>
-  <si>
-    <t>Misha</t>
-  </si>
-  <si>
-    <t>zozrog</t>
-  </si>
-  <si>
-    <t>WickedKiss</t>
-  </si>
-  <si>
-    <t>shana</t>
-  </si>
-  <si>
-    <t>SwagPlay</t>
-  </si>
-  <si>
-    <t>Munchy</t>
-  </si>
-  <si>
-    <t>lordgeminie</t>
-  </si>
-  <si>
-    <t>Segwarides(Gang)</t>
-  </si>
-  <si>
-    <t>wonderdogman</t>
-  </si>
-  <si>
-    <t>Maalinko174</t>
-  </si>
-  <si>
-    <t>dennymane</t>
-  </si>
-  <si>
-    <t>Viellideau</t>
-  </si>
-  <si>
-    <t>Emperor</t>
+    <t>NotZyhra</t>
   </si>
   <si>
     <t>Delsaro</t>
@@ -112,30 +154,36 @@
     <t>gizzbro</t>
   </si>
   <si>
+    <t>vl_sxicidal_lv</t>
+  </si>
+  <si>
+    <t>majesticmikeru</t>
+  </si>
+  <si>
+    <t>Vendy</t>
+  </si>
+  <si>
     <t>biven</t>
   </si>
   <si>
-    <t>Vendy</t>
-  </si>
-  <si>
-    <t>flyingbeast223</t>
-  </si>
-  <si>
-    <t>Elizzyble</t>
-  </si>
-  <si>
     <t>Exenith</t>
   </si>
   <si>
     <t>cbs222</t>
   </si>
   <si>
-    <t>marwolaeth66</t>
+    <t>partykat</t>
+  </si>
+  <si>
+    <t>Apix</t>
   </si>
   <si>
     <t>banes</t>
   </si>
   <si>
+    <t>numer</t>
+  </si>
+  <si>
     <t>kami_g</t>
   </si>
   <si>
@@ -145,93 +193,117 @@
     <t>Rizzie</t>
   </si>
   <si>
-    <t>Ukass</t>
-  </si>
-  <si>
     <t>yami.0</t>
   </si>
   <si>
     <t>brhee_miko.</t>
   </si>
   <si>
-    <t>Dream1528</t>
-  </si>
-  <si>
-    <t>Kilthemall</t>
-  </si>
-  <si>
     <t>Zednelem</t>
   </si>
   <si>
-    <t>SilkyRoad</t>
+    <t>Works</t>
   </si>
   <si>
     <t>Lazy_Bum</t>
   </si>
   <si>
-    <t>Cairis</t>
+    <t>Dandyy</t>
+  </si>
+  <si>
+    <t>Tide</t>
+  </si>
+  <si>
+    <t>UpCat</t>
+  </si>
+  <si>
+    <t>Taunt</t>
+  </si>
+  <si>
+    <t>ZER0420</t>
+  </si>
+  <si>
+    <t>Guergs</t>
+  </si>
+  <si>
+    <t>Swiftus</t>
+  </si>
+  <si>
+    <t>Thorn_Ess</t>
+  </si>
+  <si>
+    <t>Wicked_Kiss</t>
+  </si>
+  <si>
+    <t>Zozrog</t>
+  </si>
+  <si>
+    <t>Mishailia</t>
+  </si>
+  <si>
+    <t>Flame_Haze</t>
+  </si>
+  <si>
+    <t>notmunchy</t>
+  </si>
+  <si>
+    <t>Billberry</t>
+  </si>
+  <si>
+    <t>Segwarides</t>
+  </si>
+  <si>
+    <t>IIFrostyII</t>
+  </si>
+  <si>
+    <t>Hooge</t>
+  </si>
+  <si>
+    <t>Dennymane</t>
+  </si>
+  <si>
+    <t>MrClutchCakes</t>
+  </si>
+  <si>
+    <t>Nightmvre</t>
+  </si>
+  <si>
+    <t>Sparten</t>
+  </si>
+  <si>
+    <t>Shimhyangje</t>
   </si>
   <si>
     <t>AcidFS</t>
   </si>
   <si>
-    <t>UpCat</t>
-  </si>
-  <si>
-    <t>Guergs</t>
-  </si>
-  <si>
-    <t>Thorn_Ess</t>
-  </si>
-  <si>
-    <t>Swiftus</t>
-  </si>
-  <si>
-    <t>Mishailia</t>
-  </si>
-  <si>
-    <t>Zozrog</t>
-  </si>
-  <si>
-    <t>Wicked_Kiss</t>
-  </si>
-  <si>
-    <t>Flame_Haze</t>
-  </si>
-  <si>
-    <t>notmunchy</t>
-  </si>
-  <si>
-    <t>Segwarides</t>
-  </si>
-  <si>
-    <t>Hooge</t>
-  </si>
-  <si>
-    <t>Sparten</t>
-  </si>
-  <si>
-    <t>Dennymane</t>
-  </si>
-  <si>
-    <t>Shimhyangje</t>
+    <t>HanimeDiplomat</t>
   </si>
   <si>
     <t>Naples</t>
   </si>
   <si>
-    <t>Ooflegend</t>
+    <t>SwearShe18</t>
+  </si>
+  <si>
+    <t>Mykehru</t>
   </si>
   <si>
     <t>Cenico</t>
   </si>
   <si>
-    <t>BreninFae</t>
+    <t>PartyKat</t>
+  </si>
+  <si>
+    <t>Eiias</t>
   </si>
   <si>
     <t>banesy</t>
   </si>
   <si>
+    <t>Cabbit</t>
+  </si>
+  <si>
     <t>KamiG</t>
   </si>
   <si>
@@ -247,9 +319,6 @@
     <t>Ayamiko</t>
   </si>
   <si>
-    <t>Dreamxx</t>
-  </si>
-  <si>
     <t>Archer</t>
   </si>
   <si>
@@ -301,6 +370,9 @@
     <t>Ranger</t>
   </si>
   <si>
+    <t>Sage</t>
+  </si>
+  <si>
     <t>Scholar</t>
   </si>
   <si>
@@ -316,55 +388,58 @@
     <t>Striker</t>
   </si>
   <si>
+    <t>Tamer</t>
+  </si>
+  <si>
     <t>Valkyrie</t>
   </si>
   <si>
     <t>Witch</t>
   </si>
   <si>
-    <t>Wizard</t>
-  </si>
-  <si>
     <t>Offense</t>
   </si>
   <si>
+    <t>Offense, Flex</t>
+  </si>
+  <si>
+    <t>Offense, Defense, Flex, Elephant, Cannoneer, Scout, Flag Placer, Shai, Shotcaller</t>
+  </si>
+  <si>
+    <t>Offense, Defense, Flex, Elephant, Cannoneer, Scout, Cross comms, Flag Placer, Shotcaller</t>
+  </si>
+  <si>
+    <t>Offense, Defense, Flex, Scout</t>
+  </si>
+  <si>
+    <t>Offense, Flex, Cannoneer</t>
+  </si>
+  <si>
+    <t>Offense, Defense, Flex, Cannoneer</t>
+  </si>
+  <si>
+    <t>Offense, Shotcaller</t>
+  </si>
+  <si>
     <t>Offense, Flex, Scout</t>
   </si>
   <si>
-    <t>Offense, Flex</t>
-  </si>
-  <si>
-    <t>Offense, Defense, Flex, Cannoneer, Scout</t>
-  </si>
-  <si>
-    <t>Offense, Defense, Flex, Scout, Shotcaller</t>
-  </si>
-  <si>
-    <t>Offense, Flex, Cannoneer</t>
-  </si>
-  <si>
-    <t>Offense, Defense, Flex, Cannoneer</t>
-  </si>
-  <si>
-    <t>Offense, Shotcaller</t>
-  </si>
-  <si>
     <t>Defense, Flex, Cannoneer, Scout</t>
   </si>
   <si>
+    <t>Offense, Defense, Flex, Cannoneer, Scout, Flag Placer</t>
+  </si>
+  <si>
+    <t>Offense, Defense, Flex, Elephant, Cannoneer</t>
+  </si>
+  <si>
+    <t>Offense, Flex, Cannoneer, Scout, Cross comms, Flag Placer</t>
+  </si>
+  <si>
     <t>Offense, Flex, Flag Placer</t>
   </si>
   <si>
-    <t>Offense, Defense, Flex, Cannoneer, Scout, Flag Placer</t>
-  </si>
-  <si>
-    <t>Offense, Defense, Flex, Cannoneer, Scout, Cross comms, Flag Placer</t>
-  </si>
-  <si>
-    <t>Offense, Defense, Flex, Elephant, Cannoneer</t>
-  </si>
-  <si>
-    <t>Offense, Defense, Flex, Scout</t>
+    <t>Flex</t>
   </si>
   <si>
     <t>Offense, Defense, Flex, Elephant</t>
@@ -373,10 +448,16 @@
     <t>Offense, Defense, Flex, Elephant, Cross comms</t>
   </si>
   <si>
+    <t>Offense, Defense, Flex, Cannoneer, Scout, Flag Placer, Shai</t>
+  </si>
+  <si>
     <t>Defense, Flex</t>
   </si>
   <si>
-    <t>Defense, Elephant, Shai</t>
+    <t>Offense, Defense, Elephant, Shai</t>
+  </si>
+  <si>
+    <t>Shotcaller</t>
   </si>
   <si>
     <t>Offense, Flex, Scout, Flag Placer</t>
@@ -385,25 +466,25 @@
     <t>Offense, Scout</t>
   </si>
   <si>
+    <t>Offense, Defense</t>
+  </si>
+  <si>
     <t>Defense, Shai</t>
   </si>
   <si>
-    <t>Flex, Flag Placer</t>
+    <t>Offense, Flex, Elephant, Shotcaller</t>
   </si>
   <si>
     <t>Offense, Defense, Flex, Elephant, Scout</t>
   </si>
   <si>
+    <t>Offense, Cannoneer</t>
+  </si>
+  <si>
     <t>Defense, Flex, Elephant</t>
   </si>
   <si>
-    <t>Offense, Defense, Elephant, Cannoneer, Shai</t>
-  </si>
-  <si>
     <t>Defense, Elephant</t>
-  </si>
-  <si>
-    <t>Offense, Defense, Flex, Shotcaller</t>
   </si>
   <si>
     <t>No</t>
@@ -774,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,10 +913,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>336</v>
@@ -847,16 +928,16 @@
         <v>411</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L2">
         <v>749</v>
@@ -864,46 +945,46 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>46024.84340277778</v>
+        <v>46032.46326388889</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="F3">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G3">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L3">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -917,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>358</v>
@@ -929,66 +1010,66 @@
         <v>428</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L4">
         <v>786</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>46016.11804398148</v>
+        <v>46046.74685185185</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F5">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="G5">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L5">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -996,7 +1077,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>46027.93960648148</v>
+        <v>46046.75259259259</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1005,34 +1086,34 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E6">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="F6">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="G6">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L6">
-        <v>761</v>
+        <v>821</v>
       </c>
       <c r="M6" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1040,51 +1121,51 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>46023.89248842592</v>
+        <v>46045.423125</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E7">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F7">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G7">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="H7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L7">
+        <v>794</v>
+      </c>
+      <c r="M7" t="s">
         <v>105</v>
       </c>
-      <c r="I7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7">
-        <v>814</v>
-      </c>
-      <c r="M7" t="s">
-        <v>82</v>
-      </c>
       <c r="N7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>46029.93693287037</v>
+        <v>46043.69994212963</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1093,34 +1174,34 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G8">
         <v>441</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L8">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1128,131 +1209,131 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>46029.72747685185</v>
+        <v>46038.93577546296</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E9">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F9">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="G9">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K9" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L9">
-        <v>849</v>
+        <v>806</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>46025.41762731481</v>
+        <v>46037.8744212963</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E10">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="F10">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="G10">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="H10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10">
+        <v>857</v>
+      </c>
+      <c r="M10" t="s">
         <v>108</v>
       </c>
-      <c r="I10" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" t="s">
-        <v>131</v>
-      </c>
-      <c r="L10">
-        <v>815</v>
-      </c>
-      <c r="M10" t="s">
-        <v>85</v>
-      </c>
       <c r="N10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>46023.67623842593</v>
+        <v>46031.70168981481</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E11">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="F11">
-        <v>316</v>
+        <v>394</v>
       </c>
       <c r="G11">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="H11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11">
+        <v>858</v>
+      </c>
+      <c r="M11" t="s">
         <v>109</v>
-      </c>
-      <c r="I11" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11">
-        <v>759</v>
-      </c>
-      <c r="M11" t="s">
-        <v>86</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1260,7 +1341,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>46025.71400462963</v>
+        <v>46025.41762731481</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1269,34 +1350,34 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E12">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F12">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G12">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12">
+        <v>815</v>
+      </c>
+      <c r="M12" t="s">
         <v>110</v>
-      </c>
-      <c r="I12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12">
-        <v>838</v>
-      </c>
-      <c r="M12" t="s">
-        <v>87</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1304,87 +1385,87 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>46028.69334490741</v>
+        <v>46023.67623842593</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E13">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="F13">
-        <v>393</v>
+        <v>316</v>
       </c>
       <c r="G13">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L13">
-        <v>852</v>
+        <v>759</v>
       </c>
       <c r="M13" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>46028.21605324074</v>
+        <v>46046.69424768518</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E14">
-        <v>305</v>
+        <v>373</v>
       </c>
       <c r="F14">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="G14">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="L14">
-        <v>682</v>
+        <v>813</v>
       </c>
       <c r="M14" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1392,263 +1473,263 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>46023.71702546296</v>
+        <v>46025.71400462963</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E15">
         <v>381</v>
       </c>
       <c r="F15">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G15">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L15">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>46023.41260416667</v>
+        <v>46032.47320601852</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="E16">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="F16">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="G16">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L16">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>46026.00162037037</v>
+        <v>46028.69334490741</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E17">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="F17">
-        <v>330</v>
+        <v>393</v>
       </c>
       <c r="G17">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L17">
-        <v>778</v>
+        <v>852</v>
       </c>
       <c r="M17" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>46023.99523148148</v>
+        <v>46040.64034722222</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E18">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="F18">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="G18">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="L18">
-        <v>792</v>
+        <v>842</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>46023.74040509259</v>
+        <v>46028.21605324074</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E19">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="F19">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="G19">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L19">
-        <v>758</v>
+        <v>682</v>
       </c>
       <c r="M19" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>46025.86545138889</v>
+        <v>46023.41260416667</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E20">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F20">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G20">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L20">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="M20" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1656,43 +1737,43 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>46023.52736111111</v>
+        <v>46047.33054398148</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E21">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="F21">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="G21">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="L21">
-        <v>819</v>
+        <v>784</v>
       </c>
       <c r="M21" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1700,131 +1781,131 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>46020.75724537037</v>
+        <v>46032.86646990741</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E22">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F22">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="G22">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="L22">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="M22" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>46025.79787037037</v>
+        <v>46047.56616898148</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E23">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="F23">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="G23">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L23">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>46023.57107638889</v>
+        <v>46030.53741898148</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E24">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F24">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G24">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L24">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="M24" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1832,131 +1913,131 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>46025.69164351852</v>
+        <v>46025.86545138889</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E25">
-        <v>282</v>
+        <v>393</v>
       </c>
       <c r="F25">
-        <v>275</v>
+        <v>395</v>
       </c>
       <c r="G25">
-        <v>369</v>
+        <v>463</v>
       </c>
       <c r="H25" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L25">
-        <v>651</v>
+        <v>858</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>46026.35682870371</v>
+        <v>46023.52736111111</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E26">
+        <v>379</v>
+      </c>
+      <c r="F26">
         <v>373</v>
       </c>
-      <c r="F26">
-        <v>375</v>
-      </c>
       <c r="G26">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H26" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="L26">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="M26" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>46023.69567129629</v>
+        <v>46020.75724537037</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E27">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F27">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G27">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="L27">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="M27" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1964,7 +2045,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>46016.11642361111</v>
+        <v>46033.52362268518</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1973,74 +2054,80 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E28">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F28">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G28">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L28">
-        <v>817</v>
+        <v>806</v>
+      </c>
+      <c r="M28" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>46023.75976851852</v>
+        <v>46032.45368055555</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E29">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="F29">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="G29">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L29">
-        <v>823</v>
+        <v>721</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>46028.73037037037</v>
+        <v>46032.4465625</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -2049,677 +2136,1171 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E30">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F30">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G30">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L30">
-        <v>771</v>
+        <v>795</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>46016.55430555555</v>
+        <v>46023.57107638889</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E31">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="F31">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="G31">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I31" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K31" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L31">
-        <v>856</v>
+        <v>803</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>46025.73392361111</v>
+        <v>46032.04162037037</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E32">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="F32">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="G32">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="H32" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="J32" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K32" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L32">
-        <v>773</v>
+        <v>804</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2">
-        <v>46023.46241898148</v>
+        <v>46025.69164351852</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E33">
-        <v>374</v>
+        <v>282</v>
       </c>
       <c r="F33">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="G33">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="I33" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L33">
-        <v>823</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2">
-        <v>46026.84533564815</v>
+        <v>46045.00385416667</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E34">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="F34">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="G34">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="H34" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="I34" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="J34" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K34" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L34">
-        <v>804</v>
+        <v>847</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2">
-        <v>46025.7569212963</v>
+        <v>46044.99524305556</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E35">
-        <v>285</v>
+        <v>395</v>
       </c>
       <c r="F35">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="G35">
-        <v>379</v>
+        <v>465</v>
       </c>
       <c r="H35" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="I35" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J35" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K35" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L35">
-        <v>666</v>
+        <v>860</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2">
-        <v>46025.28038194445</v>
+        <v>46040.06761574074</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E36">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="F36">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="G36">
-        <v>434</v>
+        <v>352</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="J36" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L36">
-        <v>798</v>
+        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2">
-        <v>46023.91796296297</v>
+        <v>46026.35682870371</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E37">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F37">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="G37">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="I37" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J37" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K37" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="L37">
-        <v>794</v>
+        <v>826</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2">
-        <v>46023.48247685185</v>
+        <v>46047.07928240741</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E38">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="F38">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="G38">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="H38" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="I38" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="J38" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="K38" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L38">
-        <v>780</v>
+        <v>824</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2">
-        <v>46023.7227662037</v>
+        <v>46035.8309837963</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E39">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="F39">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="G39">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H39" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="I39" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J39" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K39" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L39">
-        <v>780</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2">
-        <v>46025.63458333333</v>
+        <v>46040.64149305555</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E40">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="F40">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="G40">
-        <v>317</v>
+        <v>425</v>
       </c>
       <c r="H40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I40" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J40" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K40" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="L40">
-        <v>583</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2">
-        <v>46023.44038194444</v>
+        <v>46023.75976851852</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E41">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="F41">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="G41">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I41" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J41" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="K41" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L41">
-        <v>850</v>
+        <v>823</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2">
-        <v>46029.09168981481</v>
+        <v>46043.7228587963</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="E42">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="F42">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G42">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="H42" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="I42" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="J42" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K42" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L42">
-        <v>818</v>
+        <v>852</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2">
-        <v>46025.72540509259</v>
+        <v>46038.89362268519</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="E43">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="F43">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="G43">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="H43" t="s">
         <v>127</v>
       </c>
       <c r="I43" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K43" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L43">
-        <v>809</v>
+        <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2">
-        <v>46023.41387731482</v>
+        <v>46047.03555555556</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E44">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="F44">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="G44">
-        <v>314</v>
+        <v>427</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I44" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K44" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L44">
-        <v>636</v>
+        <v>792</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2">
-        <v>46016.11488425926</v>
+        <v>46016.55430555555</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E45">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="F45">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="G45">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="H45" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="I45" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K45" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="L45">
-        <v>751</v>
+        <v>856</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2">
-        <v>46025.92335648148</v>
+        <v>46045.02576388889</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E46">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="F46">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="G46">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="H46" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="I46" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K46" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="L46">
-        <v>781</v>
+        <v>650</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2">
-        <v>46025.7187037037</v>
+        <v>46045.00894675926</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E47">
+        <v>317</v>
+      </c>
+      <c r="F47">
+        <v>322</v>
+      </c>
+      <c r="G47">
+        <v>385</v>
+      </c>
+      <c r="H47" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J47" t="s">
+        <v>157</v>
+      </c>
+      <c r="K47" t="s">
+        <v>157</v>
+      </c>
+      <c r="L47">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="2">
+        <v>46044.99452546296</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48">
+        <v>377</v>
+      </c>
+      <c r="F48">
+        <v>383</v>
+      </c>
+      <c r="G48">
+        <v>443</v>
+      </c>
+      <c r="H48" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" t="s">
+        <v>157</v>
+      </c>
+      <c r="K48" t="s">
+        <v>157</v>
+      </c>
+      <c r="L48">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="2">
+        <v>46025.73392361111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49">
+        <v>347</v>
+      </c>
+      <c r="F49">
+        <v>347</v>
+      </c>
+      <c r="G49">
+        <v>426</v>
+      </c>
+      <c r="H49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" t="s">
+        <v>157</v>
+      </c>
+      <c r="J49" t="s">
+        <v>157</v>
+      </c>
+      <c r="K49" t="s">
+        <v>158</v>
+      </c>
+      <c r="L49">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="2">
+        <v>46025.28038194445</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50">
+        <v>364</v>
+      </c>
+      <c r="F50">
+        <v>342</v>
+      </c>
+      <c r="G50">
+        <v>434</v>
+      </c>
+      <c r="H50" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" t="s">
+        <v>158</v>
+      </c>
+      <c r="J50" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50" t="s">
+        <v>158</v>
+      </c>
+      <c r="L50">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2">
+        <v>46045.85157407408</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51">
+        <v>367</v>
+      </c>
+      <c r="F51">
+        <v>371</v>
+      </c>
+      <c r="G51">
+        <v>428</v>
+      </c>
+      <c r="H51" t="s">
+        <v>128</v>
+      </c>
+      <c r="I51" t="s">
+        <v>158</v>
+      </c>
+      <c r="J51" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" t="s">
+        <v>157</v>
+      </c>
+      <c r="L51">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2">
+        <v>46040.2383449074</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52">
+        <v>367</v>
+      </c>
+      <c r="F52">
+        <v>367</v>
+      </c>
+      <c r="G52">
+        <v>428</v>
+      </c>
+      <c r="H52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I52" t="s">
+        <v>157</v>
+      </c>
+      <c r="J52" t="s">
+        <v>157</v>
+      </c>
+      <c r="K52" t="s">
+        <v>158</v>
+      </c>
+      <c r="L52">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2">
+        <v>46033.88811342593</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53">
+        <v>317</v>
+      </c>
+      <c r="F53">
+        <v>336</v>
+      </c>
+      <c r="G53">
+        <v>415</v>
+      </c>
+      <c r="H53" t="s">
+        <v>152</v>
+      </c>
+      <c r="I53" t="s">
+        <v>157</v>
+      </c>
+      <c r="J53" t="s">
+        <v>157</v>
+      </c>
+      <c r="K53" t="s">
+        <v>158</v>
+      </c>
+      <c r="L53">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2">
+        <v>46023.7227662037</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54">
+        <v>351</v>
+      </c>
+      <c r="F54">
+        <v>353</v>
+      </c>
+      <c r="G54">
+        <v>427</v>
+      </c>
+      <c r="H54" t="s">
+        <v>153</v>
+      </c>
+      <c r="I54" t="s">
+        <v>157</v>
+      </c>
+      <c r="J54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K54" t="s">
+        <v>158</v>
+      </c>
+      <c r="L54">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2">
+        <v>46039.39765046296</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55">
+        <v>371</v>
+      </c>
+      <c r="F55">
+        <v>375</v>
+      </c>
+      <c r="G55">
+        <v>425</v>
+      </c>
+      <c r="H55" t="s">
+        <v>154</v>
+      </c>
+      <c r="I55" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" t="s">
+        <v>157</v>
+      </c>
+      <c r="K55" t="s">
+        <v>158</v>
+      </c>
+      <c r="L55">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2">
+        <v>46025.63458333333</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56">
+        <v>256</v>
+      </c>
+      <c r="F56">
+        <v>266</v>
+      </c>
+      <c r="G56">
+        <v>317</v>
+      </c>
+      <c r="H56" t="s">
+        <v>155</v>
+      </c>
+      <c r="I56" t="s">
+        <v>157</v>
+      </c>
+      <c r="J56" t="s">
+        <v>157</v>
+      </c>
+      <c r="K56" t="s">
+        <v>157</v>
+      </c>
+      <c r="L56">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="2">
+        <v>46023.44038194444</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57">
         <v>390</v>
       </c>
-      <c r="F47">
-        <v>382</v>
-      </c>
-      <c r="G47">
-        <v>459</v>
-      </c>
-      <c r="H47" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47" t="s">
-        <v>131</v>
-      </c>
-      <c r="J47" t="s">
-        <v>130</v>
-      </c>
-      <c r="K47" t="s">
-        <v>131</v>
-      </c>
-      <c r="L47">
-        <v>849</v>
+      <c r="F57">
+        <v>390</v>
+      </c>
+      <c r="G57">
+        <v>460</v>
+      </c>
+      <c r="H57" t="s">
+        <v>142</v>
+      </c>
+      <c r="I57" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57" t="s">
+        <v>158</v>
+      </c>
+      <c r="K57" t="s">
+        <v>158</v>
+      </c>
+      <c r="L57">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="2">
+        <v>46037.87358796296</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58">
+        <v>381</v>
+      </c>
+      <c r="F58">
+        <v>381</v>
+      </c>
+      <c r="G58">
+        <v>444</v>
+      </c>
+      <c r="H58" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58" t="s">
+        <v>157</v>
+      </c>
+      <c r="K58" t="s">
+        <v>158</v>
+      </c>
+      <c r="L58">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="2">
+        <v>46023.41387731482</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59">
+        <v>318</v>
+      </c>
+      <c r="F59">
+        <v>322</v>
+      </c>
+      <c r="G59">
+        <v>314</v>
+      </c>
+      <c r="H59" t="s">
+        <v>156</v>
+      </c>
+      <c r="I59" t="s">
+        <v>157</v>
+      </c>
+      <c r="J59" t="s">
+        <v>157</v>
+      </c>
+      <c r="K59" t="s">
+        <v>158</v>
+      </c>
+      <c r="L59">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="2">
+        <v>46016.11488425926</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60">
+        <v>322</v>
+      </c>
+      <c r="F60">
+        <v>327</v>
+      </c>
+      <c r="G60">
+        <v>424</v>
+      </c>
+      <c r="H60" t="s">
+        <v>151</v>
+      </c>
+      <c r="I60" t="s">
+        <v>157</v>
+      </c>
+      <c r="J60" t="s">
+        <v>157</v>
+      </c>
+      <c r="K60" t="s">
+        <v>157</v>
+      </c>
+      <c r="L60">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/holy.xlsx
+++ b/holy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="157">
   <si>
     <t>Class</t>
   </si>
@@ -31,6 +31,9 @@
     <t>TheZeroMark</t>
   </si>
   <si>
+    <t>Ayamiko</t>
+  </si>
+  <si>
     <t>lazyhuy</t>
   </si>
   <si>
@@ -79,15 +82,15 @@
     <t>Exposed</t>
   </si>
   <si>
+    <t>Misha</t>
+  </si>
+  <si>
     <t>WickedKiss</t>
   </si>
   <si>
     <t>zozrog</t>
   </si>
   <si>
-    <t>Misha</t>
-  </si>
-  <si>
     <t>Yamul</t>
   </si>
   <si>
@@ -118,18 +121,18 @@
     <t>wonderdogman</t>
   </si>
   <si>
+    <t>Mrclutchcakes</t>
+  </si>
+  <si>
+    <t>Born8</t>
+  </si>
+  <si>
+    <t>Maalinko174</t>
+  </si>
+  <si>
     <t>dennymane</t>
   </si>
   <si>
-    <t>Mrclutchcakes</t>
-  </si>
-  <si>
-    <t>Born8</t>
-  </si>
-  <si>
-    <t>Maalinko174</t>
-  </si>
-  <si>
     <t>Viellideau</t>
   </si>
   <si>
@@ -151,9 +154,6 @@
     <t>Delsaro</t>
   </si>
   <si>
-    <t>gizzbro</t>
-  </si>
-  <si>
     <t>vl_sxicidal_lv</t>
   </si>
   <si>
@@ -196,9 +196,6 @@
     <t>yami.0</t>
   </si>
   <si>
-    <t>brhee_miko.</t>
-  </si>
-  <si>
     <t>Zednelem</t>
   </si>
   <si>
@@ -232,15 +229,15 @@
     <t>Thorn_Ess</t>
   </si>
   <si>
+    <t>Mishailia</t>
+  </si>
+  <si>
     <t>Wicked_Kiss</t>
   </si>
   <si>
     <t>Zozrog</t>
   </si>
   <si>
-    <t>Mishailia</t>
-  </si>
-  <si>
     <t>Flame_Haze</t>
   </si>
   <si>
@@ -259,18 +256,18 @@
     <t>Hooge</t>
   </si>
   <si>
+    <t>MrClutchCakes</t>
+  </si>
+  <si>
+    <t>Nightmvre</t>
+  </si>
+  <si>
+    <t>Sparten</t>
+  </si>
+  <si>
     <t>Dennymane</t>
   </si>
   <si>
-    <t>MrClutchCakes</t>
-  </si>
-  <si>
-    <t>Nightmvre</t>
-  </si>
-  <si>
-    <t>Sparten</t>
-  </si>
-  <si>
     <t>Shimhyangje</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>HanimeDiplomat</t>
   </si>
   <si>
-    <t>Naples</t>
-  </si>
-  <si>
     <t>SwearShe18</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>YA_Mii</t>
   </si>
   <si>
-    <t>Ayamiko</t>
-  </si>
-  <si>
     <t>Archer</t>
   </si>
   <si>
@@ -403,6 +394,9 @@
     <t>Offense, Flex</t>
   </si>
   <si>
+    <t>Offense, Defense, Shai</t>
+  </si>
+  <si>
     <t>Offense, Defense, Flex, Elephant, Cannoneer, Scout, Flag Placer, Shai, Shotcaller</t>
   </si>
   <si>
@@ -461,9 +455,6 @@
   </si>
   <si>
     <t>Offense, Flex, Scout, Flag Placer</t>
-  </si>
-  <si>
-    <t>Offense, Scout</t>
   </si>
   <si>
     <t>Offense, Defense</t>
@@ -855,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,10 +904,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>336</v>
@@ -928,16 +919,16 @@
         <v>411</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L2">
         <v>749</v>
@@ -951,10 +942,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>305</v>
@@ -966,22 +957,22 @@
         <v>386</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L3">
         <v>691</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -998,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>358</v>
@@ -1010,22 +1001,22 @@
         <v>428</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L4">
         <v>786</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1033,87 +1024,87 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>46046.74685185185</v>
+        <v>46047.71790509259</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="F5">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="G5">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L5">
-        <v>818</v>
+        <v>756</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>46046.75259259259</v>
+        <v>46046.74685185185</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F6">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="G6">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L6">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="M6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1121,7 +1112,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>46045.423125</v>
+        <v>46046.75259259259</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1130,34 +1121,34 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E7">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F7">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="G7">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L7">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -1165,7 +1156,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>46043.69994212963</v>
+        <v>46045.423125</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1174,34 +1165,34 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>365</v>
       </c>
       <c r="F8">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G8">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L8">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1209,7 +1200,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>46038.93577546296</v>
+        <v>46043.69994212963</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1218,34 +1209,34 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E9">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F9">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G9">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L9">
         <v>806</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1253,43 +1244,43 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2">
-        <v>46037.8744212963</v>
+        <v>46038.93577546296</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10">
+        <v>368</v>
+      </c>
+      <c r="F10">
+        <v>366</v>
+      </c>
+      <c r="G10">
+        <v>438</v>
+      </c>
+      <c r="H10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10">
+        <v>806</v>
+      </c>
+      <c r="M10" t="s">
         <v>105</v>
-      </c>
-      <c r="E10">
-        <v>393</v>
-      </c>
-      <c r="F10">
-        <v>393</v>
-      </c>
-      <c r="G10">
-        <v>464</v>
-      </c>
-      <c r="H10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" t="s">
-        <v>158</v>
-      </c>
-      <c r="K10" t="s">
-        <v>158</v>
-      </c>
-      <c r="L10">
-        <v>857</v>
-      </c>
-      <c r="M10" t="s">
-        <v>108</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1297,43 +1288,43 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2">
-        <v>46031.70168981481</v>
+        <v>46037.8744212963</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F11">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G11">
         <v>464</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L11">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1341,43 +1332,43 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
-        <v>46025.41762731481</v>
+        <v>46031.70168981481</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E12">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="F12">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="G12">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L12">
-        <v>815</v>
+        <v>858</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1385,43 +1376,43 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2">
-        <v>46023.67623842593</v>
+        <v>46025.41762731481</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E13">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="F13">
-        <v>316</v>
+        <v>378</v>
       </c>
       <c r="G13">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L13">
-        <v>759</v>
+        <v>815</v>
       </c>
       <c r="M13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1429,43 +1420,43 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2">
-        <v>46046.69424768518</v>
+        <v>46023.67623842593</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E14">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="F14">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="G14">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L14">
-        <v>813</v>
+        <v>759</v>
       </c>
       <c r="M14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1473,43 +1464,43 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2">
-        <v>46025.71400462963</v>
+        <v>46046.69424768518</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E15">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F15">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G15">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L15">
-        <v>838</v>
+        <v>813</v>
       </c>
       <c r="M15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>4</v>
@@ -1517,43 +1508,43 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2">
-        <v>46032.47320601852</v>
+        <v>46025.71400462963</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E16">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="F16">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="G16">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="H16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L16">
-        <v>809</v>
+        <v>838</v>
       </c>
       <c r="M16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1561,43 +1552,43 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
-        <v>46028.69334490741</v>
+        <v>46032.47320601852</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E17">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="F17">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="G17">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L17">
-        <v>852</v>
+        <v>809</v>
       </c>
       <c r="M17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>4</v>
@@ -1605,43 +1596,43 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
-        <v>46040.64034722222</v>
+        <v>46028.69334490741</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E18">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F18">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G18">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L18">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="M18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1649,43 +1640,43 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
-        <v>46028.21605324074</v>
+        <v>46040.64034722222</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E19">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="F19">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="G19">
-        <v>375</v>
+        <v>451</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L19">
-        <v>682</v>
+        <v>842</v>
       </c>
       <c r="M19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1693,43 +1684,43 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
-        <v>46023.41260416667</v>
+        <v>46028.21605324074</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E20">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="F20">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="G20">
-        <v>460</v>
+        <v>375</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L20">
-        <v>849</v>
+        <v>682</v>
       </c>
       <c r="M20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1737,87 +1728,87 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2">
-        <v>46047.33054398148</v>
+        <v>46023.41260416667</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E21">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="F21">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="G21">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L21">
-        <v>784</v>
+        <v>849</v>
       </c>
       <c r="M21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>46032.86646990741</v>
+        <v>46047.57944444445</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E22">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="F22">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="G22">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L22">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="M22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -1825,43 +1816,43 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>46047.56616898148</v>
+        <v>46047.33054398148</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E23">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="F23">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="G23">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L23">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="M23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1869,43 +1860,43 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>46030.53741898148</v>
+        <v>46032.86646990741</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E24">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F24">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G24">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L24">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="M24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1913,43 +1904,43 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
-        <v>46025.86545138889</v>
+        <v>46030.53741898148</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E25">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="F25">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="G25">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L25">
-        <v>858</v>
+        <v>783</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -1957,43 +1948,43 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2">
-        <v>46023.52736111111</v>
+        <v>46025.86545138889</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E26">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="F26">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="G26">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L26">
-        <v>819</v>
+        <v>858</v>
       </c>
       <c r="M26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2001,43 +1992,43 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
-        <v>46020.75724537037</v>
+        <v>46023.52736111111</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E27">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F27">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G27">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="I27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L27">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="M27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2045,274 +2036,274 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2">
-        <v>46033.52362268518</v>
+        <v>46020.75724537037</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E28">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F28">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G28">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L28">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="M28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2">
-        <v>46032.45368055555</v>
+        <v>46033.52362268518</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E29">
-        <v>300</v>
+        <v>368</v>
       </c>
       <c r="F29">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="G29">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L29">
-        <v>721</v>
+        <v>806</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2">
-        <v>46032.4465625</v>
+        <v>46032.45368055555</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E30">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="F30">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="G30">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="I30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L30">
-        <v>795</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2">
-        <v>46023.57107638889</v>
+        <v>46032.4465625</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="F31">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G31">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="H31" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L31">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
-        <v>46032.04162037037</v>
+        <v>46023.57107638889</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E32">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F32">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G32">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="H32" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="I32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L32">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2">
-        <v>46025.69164351852</v>
+        <v>46032.04162037037</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E33">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="F33">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="G33">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L33">
-        <v>651</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2">
-        <v>46045.00385416667</v>
+        <v>46025.69164351852</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E34">
-        <v>385</v>
+        <v>282</v>
       </c>
       <c r="F34">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="G34">
-        <v>458</v>
+        <v>369</v>
       </c>
       <c r="H34" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="I34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L34">
-        <v>847</v>
+        <v>651</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2323,10 +2314,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E35">
         <v>395</v>
@@ -2338,16 +2329,16 @@
         <v>465</v>
       </c>
       <c r="H35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L35">
         <v>860</v>
@@ -2361,10 +2352,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E36">
         <v>390</v>
@@ -2376,16 +2367,16 @@
         <v>352</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L36">
         <v>742</v>
@@ -2399,10 +2390,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E37">
         <v>373</v>
@@ -2414,16 +2405,16 @@
         <v>451</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L37">
         <v>826</v>
@@ -2431,45 +2422,45 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2">
-        <v>46047.07928240741</v>
+        <v>46045.00385416667</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E38">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F38">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="G38">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="H38" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L38">
-        <v>824</v>
+        <v>847</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2">
-        <v>46035.8309837963</v>
+        <v>46047.07928240741</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -2478,36 +2469,36 @@
         <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E39">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="F39">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="G39">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L39">
-        <v>749</v>
+        <v>824</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2">
-        <v>46040.64149305555</v>
+        <v>46035.8309837963</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -2516,221 +2507,221 @@
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E40">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="F40">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="G40">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H40" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L40">
-        <v>798</v>
+        <v>749</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2">
-        <v>46023.75976851852</v>
+        <v>46040.64149305555</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E41">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F41">
         <v>373</v>
       </c>
       <c r="G41">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="H41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L41">
-        <v>823</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2">
-        <v>46043.7228587963</v>
+        <v>46023.75976851852</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E42">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="F42">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="G42">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H42" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="I42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L42">
-        <v>852</v>
+        <v>823</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2">
-        <v>46038.89362268519</v>
+        <v>46043.7228587963</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E43">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="F43">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="G43">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="H43" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="I43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L43">
-        <v>741</v>
+        <v>852</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2">
-        <v>46047.03555555556</v>
+        <v>46038.89362268519</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E44">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="F44">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="G44">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="I44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L44">
-        <v>792</v>
+        <v>741</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2">
-        <v>46016.55430555555</v>
+        <v>46047.03555555556</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E45">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="F45">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="G45">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="H45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I45" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K45" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L45">
-        <v>856</v>
+        <v>792</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2741,10 +2732,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E46">
         <v>279</v>
@@ -2756,16 +2747,16 @@
         <v>369</v>
       </c>
       <c r="H46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L46">
         <v>650</v>
@@ -2779,10 +2770,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E47">
         <v>317</v>
@@ -2794,16 +2785,16 @@
         <v>385</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L47">
         <v>707</v>
@@ -2820,7 +2811,7 @@
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E48">
         <v>377</v>
@@ -2832,16 +2823,16 @@
         <v>443</v>
       </c>
       <c r="H48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L48">
         <v>826</v>
@@ -2858,7 +2849,7 @@
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E49">
         <v>347</v>
@@ -2870,16 +2861,16 @@
         <v>426</v>
       </c>
       <c r="H49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L49">
         <v>773</v>
@@ -2896,7 +2887,7 @@
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E50">
         <v>364</v>
@@ -2908,16 +2899,16 @@
         <v>434</v>
       </c>
       <c r="H50" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I50" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K50" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L50">
         <v>798</v>
@@ -2931,10 +2922,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E51">
         <v>367</v>
@@ -2946,16 +2937,16 @@
         <v>428</v>
       </c>
       <c r="H51" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L51">
         <v>799</v>
@@ -2969,10 +2960,10 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E52">
         <v>367</v>
@@ -2984,16 +2975,16 @@
         <v>428</v>
       </c>
       <c r="H52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I52" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J52" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L52">
         <v>795</v>
@@ -3007,10 +2998,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E53">
         <v>317</v>
@@ -3022,16 +3013,16 @@
         <v>415</v>
       </c>
       <c r="H53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L53">
         <v>751</v>
@@ -3045,10 +3036,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E54">
         <v>351</v>
@@ -3060,16 +3051,16 @@
         <v>427</v>
       </c>
       <c r="H54" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L54">
         <v>780</v>
@@ -3083,10 +3074,10 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E55">
         <v>371</v>
@@ -3098,16 +3089,16 @@
         <v>425</v>
       </c>
       <c r="H55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I55" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J55" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K55" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L55">
         <v>800</v>
@@ -3121,10 +3112,10 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E56">
         <v>256</v>
@@ -3136,16 +3127,16 @@
         <v>317</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L56">
         <v>583</v>
@@ -3159,10 +3150,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E57">
         <v>390</v>
@@ -3174,16 +3165,16 @@
         <v>460</v>
       </c>
       <c r="H57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K57" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L57">
         <v>850</v>
@@ -3197,10 +3188,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E58">
         <v>381</v>
@@ -3212,16 +3203,16 @@
         <v>444</v>
       </c>
       <c r="H58" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I58" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J58" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L58">
         <v>825</v>
@@ -3235,10 +3226,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E59">
         <v>318</v>
@@ -3250,57 +3241,19 @@
         <v>314</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L59">
         <v>636</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="2">
-        <v>46016.11488425926</v>
-      </c>
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60">
-        <v>322</v>
-      </c>
-      <c r="F60">
-        <v>327</v>
-      </c>
-      <c r="G60">
-        <v>424</v>
-      </c>
-      <c r="H60" t="s">
-        <v>151</v>
-      </c>
-      <c r="I60" t="s">
-        <v>157</v>
-      </c>
-      <c r="J60" t="s">
-        <v>157</v>
-      </c>
-      <c r="K60" t="s">
-        <v>157</v>
-      </c>
-      <c r="L60">
-        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/holy.xlsx
+++ b/holy.xlsx
@@ -82,15 +82,15 @@
     <t>Exposed</t>
   </si>
   <si>
+    <t>WickedKiss</t>
+  </si>
+  <si>
+    <t>zozrog</t>
+  </si>
+  <si>
     <t>Misha</t>
   </si>
   <si>
-    <t>WickedKiss</t>
-  </si>
-  <si>
-    <t>zozrog</t>
-  </si>
-  <si>
     <t>Yamul</t>
   </si>
   <si>
@@ -121,6 +121,9 @@
     <t>wonderdogman</t>
   </si>
   <si>
+    <t>dennymane</t>
+  </si>
+  <si>
     <t>Mrclutchcakes</t>
   </si>
   <si>
@@ -130,9 +133,6 @@
     <t>Maalinko174</t>
   </si>
   <si>
-    <t>dennymane</t>
-  </si>
-  <si>
     <t>Viellideau</t>
   </si>
   <si>
@@ -229,15 +229,15 @@
     <t>Thorn_Ess</t>
   </si>
   <si>
+    <t>Wicked_Kiss</t>
+  </si>
+  <si>
+    <t>Zozrog</t>
+  </si>
+  <si>
     <t>Mishailia</t>
   </si>
   <si>
-    <t>Wicked_Kiss</t>
-  </si>
-  <si>
-    <t>Zozrog</t>
-  </si>
-  <si>
     <t>Flame_Haze</t>
   </si>
   <si>
@@ -256,6 +256,9 @@
     <t>Hooge</t>
   </si>
   <si>
+    <t>Dennymane</t>
+  </si>
+  <si>
     <t>MrClutchCakes</t>
   </si>
   <si>
@@ -263,9 +266,6 @@
   </si>
   <si>
     <t>Sparten</t>
-  </si>
-  <si>
-    <t>Dennymane</t>
   </si>
   <si>
     <t>Shimhyangje</t>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2">
-        <v>46047.57944444445</v>
+        <v>46047.33054398148</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1784,28 +1784,28 @@
         <v>107</v>
       </c>
       <c r="E22">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="F22">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="G22">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I22" t="s">
         <v>154</v>
       </c>
       <c r="J22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" t="s">
         <v>155</v>
       </c>
       <c r="L22">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="M22" t="s">
         <v>117</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2">
-        <v>46047.33054398148</v>
+        <v>46032.86646990741</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1828,19 +1828,19 @@
         <v>107</v>
       </c>
       <c r="E23">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F23">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G23">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J23" t="s">
         <v>155</v>
@@ -1849,7 +1849,7 @@
         <v>155</v>
       </c>
       <c r="L23">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="M23" t="s">
         <v>118</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2">
-        <v>46032.86646990741</v>
+        <v>46047.74747685185</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -1872,28 +1872,28 @@
         <v>107</v>
       </c>
       <c r="E24">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="F24">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="G24">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H24" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K24" t="s">
         <v>155</v>
       </c>
       <c r="L24">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="M24" t="s">
         <v>119</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2">
-        <v>46044.99524305556</v>
+        <v>46045.00385416667</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -2320,19 +2320,19 @@
         <v>112</v>
       </c>
       <c r="E35">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F35">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G35">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H35" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="I35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J35" t="s">
         <v>154</v>
@@ -2341,12 +2341,12 @@
         <v>155</v>
       </c>
       <c r="L35">
-        <v>860</v>
+        <v>847</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2">
-        <v>46040.06761574074</v>
+        <v>46044.99524305556</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -2358,16 +2358,16 @@
         <v>112</v>
       </c>
       <c r="E36">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F36">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G36">
-        <v>352</v>
+        <v>465</v>
       </c>
       <c r="H36" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="I36" t="s">
         <v>154</v>
@@ -2379,12 +2379,12 @@
         <v>155</v>
       </c>
       <c r="L36">
-        <v>742</v>
+        <v>860</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2">
-        <v>46026.35682870371</v>
+        <v>46040.06761574074</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -2396,16 +2396,16 @@
         <v>112</v>
       </c>
       <c r="E37">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F37">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="G37">
-        <v>451</v>
+        <v>352</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="I37" t="s">
         <v>154</v>
@@ -2417,12 +2417,12 @@
         <v>155</v>
       </c>
       <c r="L37">
-        <v>826</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2">
-        <v>46045.00385416667</v>
+        <v>46026.35682870371</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -2434,19 +2434,19 @@
         <v>112</v>
       </c>
       <c r="E38">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F38">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="G38">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H38" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="I38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J38" t="s">
         <v>154</v>
@@ -2455,7 +2455,7 @@
         <v>155</v>
       </c>
       <c r="L38">
-        <v>847</v>
+        <v>826</v>
       </c>
     </row>
     <row r="39" spans="1:12">
